--- a/e_shape_linux/Output/Maps_output/DNP_2020_2021_v2_Maps_30.xlsx
+++ b/e_shape_linux/Output/Maps_output/DNP_2020_2021_v2_Maps_30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Calculated_weighted_GPP</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Calculated_ecosystem_GPP</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Observed_GPP</t>
         </is>
       </c>
@@ -478,18 +488,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/947094ea75e2762d2b6bc30c1818b1f7-46a525d02291d594a59319761fdf3246:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/20033583abcad302d866548cf4b8cea6-66bff18492bacc3f977f60a4d039f503:getPixels</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/ded57973d336cab6c18194a168c5a2ca-679a49cfe25ea80cb0e2e9550ed323f4:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/bc16f13a456e344f960f880a916e826c-0d6ae0d7d70ad3a64287d7bdc118872f:getPixels</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>46.25468875410116</v>
+        <v>46.2546886852361</v>
       </c>
       <c r="F2" t="n">
+        <v>43.42417409963178</v>
+      </c>
+      <c r="G2" t="n">
+        <v>48.15392302173334</v>
+      </c>
+      <c r="H2" t="n">
         <v>32.40337414373436</v>
       </c>
     </row>
@@ -506,18 +522,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/e675ce2aaae7dcc422a07f552a483838-c975ea7aa384d98820ed3607c3a02cfd:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/15a1b48551d1a5c28d49c995e0fa701d-f52e1fde99e6ee29333d6cc4440c1318:getPixels</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/028ad7b73fc1c437a89a562be8ae14f9-bfc453469d5becba829fb64a4d5d615f:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4a6c13e2b1a5653588694396d0451637-b267d6d40f5e3b6689c3d37f8d2b6308:getPixels</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.70171261831722</v>
+        <v>24.7017126292047</v>
       </c>
       <c r="F3" t="n">
+        <v>24.38405159886872</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24.83457998544052</v>
+      </c>
+      <c r="H3" t="n">
         <v>22.61805108157681</v>
       </c>
     </row>
@@ -534,18 +556,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/ede4e0257c3a33ce00e9fb476372cac2-c68d30baaf410a93b7997b242aba9b9d:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4b7f012a4591e697f4888ac23fce78c7-85934ddf0c6e138f7207de77b409e239:getPixels</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/bfee57a19dc33041f6f65034569b4a57-7cb0ab307ec6dc4db2f7dba1d12f51e5:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/bb1d3d5dd535ceb0da512e7ff8b402e7-c79c45a4a321b9c8b4b8c85014347757:getPixels</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10.84740849807767</v>
+        <v>10.84740856605439</v>
       </c>
       <c r="F4" t="n">
+        <v>10.84365107320006</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.89395475623609</v>
+      </c>
+      <c r="H4" t="n">
         <v>23.1830198229477</v>
       </c>
     </row>
@@ -562,18 +590,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/c6ac6d9965f5450b6196ee47eacc9312-41f3ea31fb2a3a0faa15795a7012b423:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/e7d01930086c95b9eb6fca061e6ebe81-6b99826bf3c6081679b3c3beb7b4ddaf:getPixels</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/0af73a1bc2ff2ef79b3dcf546a1ee1de-510e918a6e173c67c60d6a9b2fe3ccf6:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/b54601bcc58618dc89270f70d274d0be-773bd744a437ef0879b4180e0405d664:getPixels</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14.99887494061262</v>
+        <v>14.99887499254473</v>
       </c>
       <c r="F5" t="n">
+        <v>15.46199030536139</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.55644631934385</v>
+      </c>
+      <c r="H5" t="n">
         <v>12.27444616209607</v>
       </c>
     </row>
@@ -590,18 +624,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/508f3fe90a8a1b5e04886a19a23ca732-b3eb82b31b1d9839331c2432e0640be7:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/dd28dfbf773fda42f0f970f8160eff37-f28437f264fc8e69870f16a6dd2838d3:getPixels</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/dd550db4bd581153ae67f29bea535f74-250584d166b68cd4d8ce8dfe26da14b5:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/995bd65f915e2ff552f54424dc86116c-1787704aaaa6d8beceeb5d349be7ce2c:getPixels</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.5279571841239</v>
-      </c>
-      <c r="F6" t="n">
+        <v>19.52795720791661</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>29.76500975244161</v>
+      </c>
+      <c r="H6" t="n">
         <v>10.74793721056454</v>
       </c>
     </row>
@@ -618,18 +660,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/50aab28aa746eeb36836672a23ea302c-413b65b1ac98ad0c5a013221a3c9545c:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/ace89470810890f4bdb3d50703be55d9-577b6d83439a22fd4cd3f105e88b709c:getPixels</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/14697bd26f700652be836f5214475c33-a77db3d808fc1854e8df334e0d471982:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/525fcff98b8e575326da820b095c9331-7a8c38628ff2edfd2e15c484c50763af:getPixels</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80.18226742989285</v>
+        <v>80.18226722990451</v>
       </c>
       <c r="F7" t="n">
+        <v>71.96553789886508</v>
+      </c>
+      <c r="G7" t="n">
+        <v>121.5745960750595</v>
+      </c>
+      <c r="H7" t="n">
         <v>75.96131308552776</v>
       </c>
     </row>
@@ -646,18 +694,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/106567f7c8b379815a8114777defeb1d-e6ecf6f59c46d2f8050ca48d144a6dff:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/2ca579eba2aad7e4f8ac0aecbdae30d2-7fe2a05fd6f39fa97abc2f9be8a9f5a1:getPixels</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/c71f89e8eceb460ed2b51ea8d153b832-2cae0283c6835cb61f872c62df691948:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/1e08b74905b80eb4d7652ea7f9cb3d1e-afab24906b0348531010435f0250a6ad:getPixels</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>187.3246214864919</v>
+        <v>187.3246208688751</v>
       </c>
       <c r="F8" t="n">
+        <v>156.9802108631809</v>
+      </c>
+      <c r="G8" t="n">
+        <v>286.5779241250405</v>
+      </c>
+      <c r="H8" t="n">
         <v>186.8941833202429</v>
       </c>
     </row>
@@ -674,19 +728,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/fc45516099b772e011fd0def0098d71b-49d61f0dda4e80b0b629ea93d43976bc:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/a8f24a97f40452ba5c92134f7631a458-ea7f3e3880c5202e91f566b9c8a5cf8a:getPixels</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/f4a13fcb7ef80a229d6bae7bf06bc57b-1cb07b3607ca347ece9ec2a22b43ee18:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4874750b5def588313bd17f16b8fa5b4-626a6fba5b977742895fe98f654d55fd:getPixels</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>252.3996971010389</v>
+        <v>252.3996962354623</v>
       </c>
       <c r="F9" t="n">
-        <v>197.2518484257928</v>
+        <v>215.3744447808094</v>
+      </c>
+      <c r="G9" t="n">
+        <v>287.8844276667211</v>
+      </c>
+      <c r="H9" t="n">
+        <v>197.2518484257927</v>
       </c>
     </row>
   </sheetData>

--- a/e_shape_linux/Output/Maps_output/DNP_2020_2021_v2_Maps_30.xlsx
+++ b/e_shape_linux/Output/Maps_output/DNP_2020_2021_v2_Maps_30.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/20033583abcad302d866548cf4b8cea6-66bff18492bacc3f977f60a4d039f503:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/9a9fbdfa34426815b0452b3c2b172752-1e74d7d70a3885e939ecae062db5d2eb:getPixels</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/bc16f13a456e344f960f880a916e826c-0d6ae0d7d70ad3a64287d7bdc118872f:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/32583df512409179714002fc79524ac9-33d73da676f7877d06e13b39838f9af0:getPixels</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -503,7 +503,7 @@
         <v>43.42417409963178</v>
       </c>
       <c r="G2" t="n">
-        <v>48.15392302173334</v>
+        <v>48.15392302173338</v>
       </c>
       <c r="H2" t="n">
         <v>32.40337414373436</v>
@@ -522,19 +522,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/15a1b48551d1a5c28d49c995e0fa701d-f52e1fde99e6ee29333d6cc4440c1318:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/f0c17a724c623a04911897bd70f8cf21-9253f981222abbdbab02254166e4cce8:getPixels</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4a6c13e2b1a5653588694396d0451637-b267d6d40f5e3b6689c3d37f8d2b6308:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/e6a2c7656489d08837aaa0b71b799541-6406f5bc60f8ba28359e677a58689ae8:getPixels</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>24.7017126292047</v>
       </c>
       <c r="F3" t="n">
-        <v>24.38405159886872</v>
+        <v>24.38405159886873</v>
       </c>
       <c r="G3" t="n">
         <v>24.83457998544052</v>
@@ -556,16 +556,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4b7f012a4591e697f4888ac23fce78c7-85934ddf0c6e138f7207de77b409e239:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/a3fd5a7bcc875d1ebd9f7dae2ff08ebc-f9ffff6d74777aa23ddfc4239338c9f1:getPixels</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/bb1d3d5dd535ceb0da512e7ff8b402e7-c79c45a4a321b9c8b4b8c85014347757:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/09073599dfd20effc256cb928a2d4bf4-9bd139ba5c917d7b6462a219a183c1f7:getPixels</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10.84740856605439</v>
+        <v>10.8474085660544</v>
       </c>
       <c r="F4" t="n">
         <v>10.84365107320006</v>
@@ -590,16 +590,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/e7d01930086c95b9eb6fca061e6ebe81-6b99826bf3c6081679b3c3beb7b4ddaf:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/2226f74b5f686242ea06c5563182d0cb-f8b877ce20ffa014a92794f0ef66f6e9:getPixels</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/b54601bcc58618dc89270f70d274d0be-773bd744a437ef0879b4180e0405d664:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/1912e9572b39b11811391c0aab3f3caf-89e28dee73f821eafc8780627c2b745e:getPixels</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14.99887499254473</v>
+        <v>14.99887499254474</v>
       </c>
       <c r="F5" t="n">
         <v>15.46199030536139</v>
@@ -624,16 +624,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/dd28dfbf773fda42f0f970f8160eff37-f28437f264fc8e69870f16a6dd2838d3:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/2b40501cfc897718610858cf16c58c07-a3c81c55c0d7c304ec5f828ef81c7732:getPixels</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/995bd65f915e2ff552f54424dc86116c-1787704aaaa6d8beceeb5d349be7ce2c:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/7d0394332fa28f9b1562b3d9d2d93258-e2a15b58df334f57b51786d73d80bd49:getPixels</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.52795720791661</v>
+        <v>19.52795720791662</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -660,12 +660,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/ace89470810890f4bdb3d50703be55d9-577b6d83439a22fd4cd3f105e88b709c:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/a1797bc778ab5850d28f4db77e824741-654b53fca9438a3266d241a461bc09c7:getPixels</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/525fcff98b8e575326da820b095c9331-7a8c38628ff2edfd2e15c484c50763af:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/0ff91a0dbf841135453156d22a585384-eac126a60913fde9b19e62dc8d5c1ef3:getPixels</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -694,12 +694,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/2ca579eba2aad7e4f8ac0aecbdae30d2-7fe2a05fd6f39fa97abc2f9be8a9f5a1:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/0d67c387d3edc5ef26746b53a53f7696-acc5369f55eac92ebefa7d8e72c934fb:getPixels</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/1e08b74905b80eb4d7652ea7f9cb3d1e-afab24906b0348531010435f0250a6ad:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/ff7aed36d716701c0999356fad52c15d-d382f54b69db4408efa05acda5841d31:getPixels</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -709,7 +709,7 @@
         <v>156.9802108631809</v>
       </c>
       <c r="G8" t="n">
-        <v>286.5779241250405</v>
+        <v>286.5779241250407</v>
       </c>
       <c r="H8" t="n">
         <v>186.8941833202429</v>
@@ -728,25 +728,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/a8f24a97f40452ba5c92134f7631a458-ea7f3e3880c5202e91f566b9c8a5cf8a:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/17f7d40057c41d46d84cf5dbd95c762c-bc2d677fe88b93d885f83b366064c055:getPixels</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4874750b5def588313bd17f16b8fa5b4-626a6fba5b977742895fe98f654d55fd:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/9f7b7a68af66b2192bd34f2321242dc5-cf57d35bcfbeb042d08b4229bd9d6157:getPixels</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>252.3996962354623</v>
+        <v>252.3996962354624</v>
       </c>
       <c r="F9" t="n">
         <v>215.3744447808094</v>
       </c>
       <c r="G9" t="n">
-        <v>287.8844276667211</v>
+        <v>287.8844276667212</v>
       </c>
       <c r="H9" t="n">
-        <v>197.2518484257927</v>
+        <v>197.2518484257928</v>
       </c>
     </row>
   </sheetData>
